--- a/Modeler/Training/Schema/RecruitManagement.xlsx
+++ b/Modeler/Training/Schema/RecruitManagement.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyRepo_Bhuvana_Test\Documentation\BizAPP\Modeler2.0\BizAPP2.0_PlatformTraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\PLATFORM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Candidate" sheetId="7" r:id="rId1"/>
@@ -540,7 +540,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="131">
   <si>
     <t>Department</t>
   </si>
@@ -791,9 +791,6 @@
     <t>Enter the user who will approve the request.</t>
   </si>
   <si>
-    <t>CandidateID</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -821,9 +818,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>Auto-populate CandidateID  to keep track of number of Candidates (or their count).</t>
-  </si>
-  <si>
     <t>Enter First name of the candidate</t>
   </si>
   <si>
@@ -896,27 +890,9 @@
     <t xml:space="preserve">Set reverse 1:1 relation from Employee Object to Candidate Object when Candidate becomes an Employee. </t>
   </si>
   <si>
-    <t>HR.RecruitManagement.Division</t>
-  </si>
-  <si>
-    <t>HR.RecruitManagement.Candidate</t>
-  </si>
-  <si>
-    <t>HR.RecruitManagement.Interview</t>
-  </si>
-  <si>
-    <t>HR.RecruitManagement.Employee</t>
-  </si>
-  <si>
-    <t>HR.RecruitManagement.Department</t>
-  </si>
-  <si>
     <t>Single, Married, Divorced</t>
   </si>
   <si>
-    <t>HR.RecruitManagement.ApprovalLineItem</t>
-  </si>
-  <si>
     <t>Indicate the name of the Division.</t>
   </si>
   <si>
@@ -939,6 +915,24 @@
   </si>
   <si>
     <t>Enter mobile numbers of Candidates in the format +91-(followed by 10 digits).</t>
+  </si>
+  <si>
+    <t>HR.Recruit_Management.Candidate</t>
+  </si>
+  <si>
+    <t>HR.Recruit_Management.Department</t>
+  </si>
+  <si>
+    <t>HR.Recruit_Management.Interview</t>
+  </si>
+  <si>
+    <t>HR.Recruit_Management.Employee</t>
+  </si>
+  <si>
+    <t>HR.Recruit_Management.ApprovalLineItem</t>
+  </si>
+  <si>
+    <t>HR.Recruit_Management.Division</t>
   </si>
 </sst>
 </file>
@@ -1747,11 +1741,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1773,7 +1765,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="41" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -1873,25 +1865,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>84</v>
       </c>
@@ -1903,190 +1895,192 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>99</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>100</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="2"/>
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>76</v>
+      <c r="C17" t="s">
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="B18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -2095,47 +2089,27 @@
         <v>115</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="B19" s="16" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2151,10 +2125,10 @@
       <formula1>Behaviour</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>$L$23:$L$28</formula1>
+      <formula1>$L$22:$L$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B6">
-      <formula1>$L$32:$L$43</formula1>
+      <formula1>$L$31:$L$42</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2167,9 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2190,7 +2162,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="41" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -2378,7 +2350,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>19</v>
@@ -2400,7 +2372,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>19</v>
@@ -2485,7 +2457,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="24" t="s">
@@ -2548,9 +2520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2571,7 +2541,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="41" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -2707,7 +2677,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>21</v>
@@ -2784,7 +2754,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2805,7 +2775,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="41" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -2913,13 +2883,13 @@
         <v>22</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>0</v>
@@ -2941,7 +2911,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>56</v>
@@ -2963,7 +2933,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="33" t="s">
         <v>34</v>
@@ -3157,9 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3180,7 +3148,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="41" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -3376,7 +3344,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -3528,9 +3496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3551,7 +3517,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="41" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
@@ -3663,7 +3629,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -3683,7 +3649,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -3703,7 +3669,7 @@
         <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -3719,13 +3685,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -3738,19 +3704,19 @@
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="4"/>
@@ -3783,7 +3749,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -3809,7 +3775,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -3831,7 +3797,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
